--- a/bin/data/total/posted-questionnaire-total.xlsx
+++ b/bin/data/total/posted-questionnaire-total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\sasaki\MyDevelop\dev_questionnaire-total-vba\bin\data\total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFCCB2E-F0BC-4A39-8D7F-9B860158E145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC9097-DBCC-45A3-8AE2-D5C2CD4E7B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="675" windowWidth="15855" windowHeight="14730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="630" windowWidth="15855" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="１○○××△△部門" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3"/>
@@ -344,6 +344,16 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所属（アンケート回答）</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -697,16 +707,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,19 +730,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>10101</v>
       </c>
@@ -745,14 +758,14 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>10102</v>
       </c>
@@ -765,17 +778,17 @@
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>10103</v>
       </c>
@@ -788,14 +801,14 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>10104</v>
       </c>
@@ -808,10 +821,10 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -824,18 +837,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4C3312-528C-4D93-9F66-513E5006B20C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -848,20 +863,23 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>10201</v>
       </c>
@@ -874,17 +892,17 @@
       <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>10202</v>
       </c>
@@ -897,14 +915,14 @@
       <c r="D3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>10203</v>
       </c>
@@ -917,14 +935,14 @@
       <c r="D4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>10204</v>
       </c>
@@ -937,14 +955,14 @@
       <c r="D5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>10205</v>
       </c>
@@ -957,17 +975,17 @@
       <c r="D6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>10206</v>
       </c>
@@ -980,14 +998,14 @@
       <c r="D7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>10207</v>
       </c>
@@ -1000,17 +1018,17 @@
       <c r="D8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>10208</v>
       </c>
@@ -1023,17 +1041,17 @@
       <c r="D9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>10209</v>
       </c>
@@ -1046,17 +1064,17 @@
       <c r="D10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>10210</v>
       </c>
@@ -1069,14 +1087,14 @@
       <c r="D11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>10211</v>
       </c>
@@ -1089,14 +1107,14 @@
       <c r="D12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>10212</v>
       </c>
@@ -1109,14 +1127,14 @@
       <c r="D13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>10213</v>
       </c>
@@ -1129,14 +1147,14 @@
       <c r="D14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>10214</v>
       </c>
@@ -1149,14 +1167,14 @@
       <c r="D15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>10215</v>
       </c>
@@ -1169,14 +1187,14 @@
       <c r="D16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>10216</v>
       </c>
@@ -1189,17 +1207,17 @@
       <c r="D17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>10217</v>
       </c>
@@ -1212,14 +1230,14 @@
       <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>10218</v>
       </c>
@@ -1232,14 +1250,14 @@
       <c r="D19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>10219</v>
       </c>
@@ -1252,14 +1270,14 @@
       <c r="D20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>10220</v>
       </c>
@@ -1272,14 +1290,14 @@
       <c r="D21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>10221</v>
       </c>
@@ -1292,17 +1310,17 @@
       <c r="D22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>10222</v>
       </c>
@@ -1315,14 +1333,14 @@
       <c r="D23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>10223</v>
       </c>
@@ -1335,14 +1353,14 @@
       <c r="D24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>10224</v>
       </c>
@@ -1355,14 +1373,14 @@
       <c r="D25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>10225</v>
       </c>
@@ -1375,14 +1393,14 @@
       <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>10226</v>
       </c>
@@ -1395,14 +1413,14 @@
       <c r="D27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>10227</v>
       </c>
@@ -1415,14 +1433,14 @@
       <c r="D28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>10228</v>
       </c>
@@ -1435,17 +1453,17 @@
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>10229</v>
       </c>
@@ -1458,24 +1476,24 @@
       <c r="D30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/bin/data/total/posted-questionnaire-total.xlsx
+++ b/bin/data/total/posted-questionnaire-total.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\sasaki\MyDevelop\dev_questionnaire-total-vba\bin\data\total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC9097-DBCC-45A3-8AE2-D5C2CD4E7B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEF29C2-FF09-4BF7-AEC8-1B731159E5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="630" windowWidth="15855" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="345" windowWidth="15855" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="１○○××△△部門" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3"/>
@@ -357,12 +357,47 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①出身地</t>
+    <rPh sb="1" eb="4">
+      <t>シュッシンチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>②□□□□</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>③□□□□□□□□</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>④□□□□</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>②□□□□</t>
+  </si>
+  <si>
+    <t>③□□□□□□□□</t>
+  </si>
+  <si>
+    <t>④□□□□</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +434,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Yu Gothic Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -707,16 +750,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,22 +775,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>10101</v>
       </c>
@@ -758,14 +818,14 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>10102</v>
       </c>
@@ -778,17 +838,17 @@
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>10103</v>
       </c>
@@ -801,14 +861,14 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>10104</v>
       </c>
@@ -821,10 +881,10 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -837,20 +897,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4C3312-528C-4D93-9F66-513E5006B20C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,23 +921,38 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
         <v>10201</v>
       </c>
@@ -892,17 +965,17 @@
       <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>10202</v>
       </c>
@@ -915,14 +988,14 @@
       <c r="D3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>10203</v>
       </c>
@@ -935,14 +1008,14 @@
       <c r="D4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>10204</v>
       </c>
@@ -955,14 +1028,14 @@
       <c r="D5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>10205</v>
       </c>
@@ -975,17 +1048,17 @@
       <c r="D6" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>10206</v>
       </c>
@@ -998,14 +1071,14 @@
       <c r="D7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>10207</v>
       </c>
@@ -1018,17 +1091,17 @@
       <c r="D8" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>10208</v>
       </c>
@@ -1041,17 +1114,17 @@
       <c r="D9" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>10209</v>
       </c>
@@ -1064,17 +1137,17 @@
       <c r="D10" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>10210</v>
       </c>
@@ -1087,14 +1160,14 @@
       <c r="D11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10211</v>
       </c>
@@ -1107,14 +1180,14 @@
       <c r="D12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="G12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>10212</v>
       </c>
@@ -1127,14 +1200,14 @@
       <c r="D13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>10213</v>
       </c>
@@ -1147,14 +1220,14 @@
       <c r="D14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="G14" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>10214</v>
       </c>
@@ -1167,14 +1240,14 @@
       <c r="D15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="G15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>10215</v>
       </c>
@@ -1187,14 +1260,14 @@
       <c r="D16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>10216</v>
       </c>
@@ -1207,17 +1280,17 @@
       <c r="D17" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>10217</v>
       </c>
@@ -1230,14 +1303,14 @@
       <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>10218</v>
       </c>
@@ -1250,14 +1323,14 @@
       <c r="D19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>10219</v>
       </c>
@@ -1270,14 +1343,14 @@
       <c r="D20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="G20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>10220</v>
       </c>
@@ -1290,14 +1363,14 @@
       <c r="D21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="G21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>10221</v>
       </c>
@@ -1310,17 +1383,17 @@
       <c r="D22" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="G22" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>10222</v>
       </c>
@@ -1333,14 +1406,14 @@
       <c r="D23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="G23" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>10223</v>
       </c>
@@ -1353,14 +1426,14 @@
       <c r="D24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="G24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>10224</v>
       </c>
@@ -1373,14 +1446,14 @@
       <c r="D25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="G25" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>10225</v>
       </c>
@@ -1393,14 +1466,14 @@
       <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="G26" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>10226</v>
       </c>
@@ -1413,14 +1486,14 @@
       <c r="D27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="G27" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>10227</v>
       </c>
@@ -1433,14 +1506,14 @@
       <c r="D28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>10228</v>
       </c>
@@ -1453,17 +1526,17 @@
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="G29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>10229</v>
       </c>
@@ -1476,24 +1549,24 @@
       <c r="D30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
